--- a/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>SM24_microstate_IDs_with_2D_depiction.csv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>Microstate List</t>
   </si>
   <si>
     <t>Molecule</t>
@@ -40,12 +40,6 @@
     <t>COc1ccc(cc1)c2c3c(ncnc3oc2c4ccc(cc4)OC)[N-]CCO</t>
   </si>
   <si>
-    <t>SM24_micro003</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c-3c([nH]c[nH+]c3[o+]c2c4ccc(cc4)OC)NCCO</t>
-  </si>
-  <si>
     <t>SM24_micro004</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>COc1ccc(cc1)c2c3c(=[NH+]CCO)[nH]cnc3oc2c4ccc(cc4)OC</t>
   </si>
   <si>
-    <t>SM24_micro012</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c3c([nH+]c[nH+]c3oc2c4ccc(cc4)OC)[N-]CCO</t>
-  </si>
-  <si>
     <t>SM24_micro013</t>
   </si>
   <si>
@@ -112,48 +100,18 @@
     <t>COc1ccc(cc1)c2c3/c(=N/CC[OH2+])/[nH]cnc3oc2c4ccc(cc4)OC</t>
   </si>
   <si>
-    <t>SM24_micro015</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c-3c([nH+]c[n-]c3[o+]c2c4ccc(cc4)OC)NCCO</t>
-  </si>
-  <si>
-    <t>SM24_micro016</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c3c(=[NH+]CCO)[nH+]c[n-]c3oc2c4ccc(cc4)OC</t>
-  </si>
-  <si>
     <t>SM24_micro017</t>
   </si>
   <si>
     <t>COc1ccc(cc1)c2c3c(ncnc3oc2c4ccc(cc4)OC)[NH2+]CCO</t>
   </si>
   <si>
-    <t>SM24_micro018</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c-3c([nH]c[nH+]c3[o+]c2c4ccc(cc4)OC)[N-]CCO</t>
-  </si>
-  <si>
-    <t>SM24_micro019</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c-3c([nH]cnc3[o+]c2c4ccc(cc4)OC)[N-]CCO</t>
-  </si>
-  <si>
     <t>SM24_micro020</t>
   </si>
   <si>
     <t>COc1ccc(cc1)c2c3c([nH+]c[nH+]c3oc2c4ccc(cc4)OC)NCCO</t>
   </si>
   <si>
-    <t>SM24_micro021</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c3c(=NCCO)[nH+]c[n-]c3oc2c4ccc(cc4)OC</t>
-  </si>
-  <si>
     <t>SM24_micro022</t>
   </si>
   <si>
@@ -178,12 +136,6 @@
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=[NH+]\CC[OH2+])oc2c4ccc(cc4)OC</t>
   </si>
   <si>
-    <t>SM24_micro026</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c-3c([nH]cnc3[o+]c2c4ccc(cc4)OC)NCCO</t>
-  </si>
-  <si>
     <t>SM24_micro027</t>
   </si>
   <si>
@@ -194,6 +146,48 @@
   </si>
   <si>
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=N\CCO)oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
+    <t>SM24_micro029</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]cnc3[NH2+]CC[O-])oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
+    <t>SM24_micro030</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]cnc3oc2c4ccc(cc4)OC)[NH2+]CC[O-]</t>
+  </si>
+  <si>
+    <t>SM24_micro031</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]c[nH+]c3oc2c4ccc(cc4)OC)NCC[O-]</t>
+  </si>
+  <si>
+    <t>SM24_micro032</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]cnc3[NH2+]CCO)oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
+    <t>SM24_micro033</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]cnc3oc2c4ccc(cc4)OC)[NH2+]CCO</t>
+  </si>
+  <si>
+    <t>SM24_micro034</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]c[nH+]c3oc2c4ccc(cc4)OC)[NH2+]CC[O-]</t>
+  </si>
+  <si>
+    <t>SM24_micro035</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH+]c[nH+]c3oc2c4ccc(cc4)OC)[NH2+]CCO</t>
   </si>
 </sst>
 </file>
@@ -1316,44 +1310,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="82848450"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="tmp29.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="86020275"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1651,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1894,14 +1850,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Microstate List</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>COc1ccc(cc1)c2c3c(=NCCO)[nH]cnc3oc2c4ccc(cc4)OC</t>
-  </si>
-  <si>
-    <t>SM24_micro008</t>
-  </si>
-  <si>
-    <t>COc1ccc(cc1)c2c3/c(=N/CCO)/[nH]cnc3oc2c4ccc(cc4)OC</t>
   </si>
   <si>
     <t>SM24_micro009</t>
@@ -1272,44 +1266,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="79676625"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="tmp28.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82848450"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1607,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1842,14 +1798,6 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM24_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Microstate List</t>
   </si>
@@ -28,6 +28,9 @@
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
+    <t>canonical SMILES</t>
+  </si>
+  <si>
     <t>SM24_micro001</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=N\CC[OH2+])oc2c4ccc(cc4)OC</t>
   </si>
   <si>
+    <t>COc1ccc(cc1)c2c3c([nH]cnc3=NCC[OH2+])oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
     <t>SM24_micro006</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>COc1ccc(cc1)c2c3/c(=N/CC[OH2+])/[nH]cnc3oc2c4ccc(cc4)OC</t>
   </si>
   <si>
+    <t>COc1ccc(cc1)c2c3c(=NCC[OH2+])[nH]cnc3oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
     <t>SM24_micro017</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=[NH+]\CC[O-])oc2c4ccc(cc4)OC</t>
   </si>
   <si>
+    <t>COc1ccc(cc1)c2c3c([nH]cnc3=[NH+]CC[O-])oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
     <t>SM24_micro024</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=[NH+]\CC[OH2+])oc2c4ccc(cc4)OC</t>
   </si>
   <si>
+    <t>COc1ccc(cc1)c2c3c([nH]cnc3=[NH+]CC[OH2+])oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
     <t>SM24_micro027</t>
   </si>
   <si>
@@ -140,6 +155,9 @@
   </si>
   <si>
     <t>COc1ccc(cc1)c2c\3c([nH]cn/c3=N\CCO)oc2c4ccc(cc4)OC</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)c2c3c([nH]cnc3=NCCO)oc2c4ccc(cc4)OC</t>
   </si>
   <si>
     <t>SM24_micro029</t>
@@ -1572,14 +1590,15 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1589,213 +1608,294 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
